--- a/97_enquete/18.xlsx
+++ b/97_enquete/18.xlsx
@@ -1,16 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28125"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20500" windowHeight="7540"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="46">
   <si>
     <t>P1</t>
   </si>
@@ -60,9 +63,6 @@
     <t>Ouvindo/Depto Ecologia/Labvert</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>No laboratório através da profa Camila</t>
   </si>
   <si>
@@ -105,9 +105,6 @@
     <t>Ciências Biológicas - Ecologia</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Usei uma vez só</t>
   </si>
   <si>
@@ -160,16 +157,41 @@
   </si>
   <si>
     <t>1 ano, poucas vezes, sem uma frequência</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -192,13 +214,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -257,7 +298,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -309,7 +350,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -503,7 +544,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -511,278 +552,319 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="52.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="91" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="78.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="75.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
       <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
       </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" t="s">
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
       </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
         <v>31</v>
       </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" t="s">
         <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>